--- a/src/ExcelsiorClosedXml.Tests/Tests.RealWorldScenario.Net.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.RealWorldScenario.Net.verified.xlsx
@@ -175,7 +175,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="2">
+  <x:borders count="1">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -193,29 +193,12 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
   </x:borders>
   <x:cellStyleXfs count="12">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -254,7 +237,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
